--- a/08 Project Management/Tidsregistrering/PM15 Tidsregistrering for Laila.xlsx
+++ b/08 Project Management/Tidsregistrering/PM15 Tidsregistrering for Laila.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laila\OneDrive\Dokumenter\GitHub\HoeKulator\08 Project Management\Tidsregistrering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AFD587E0-C16F-447F-BBC5-E01BACC0FE30}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12D314A9-8C20-4EC6-B13F-493EC41C491B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{84363544-26A8-43A0-AC4F-33AAA0FF1AA4}"/>
   </bookViews>
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="Roller">'Ark2'!$B$3:$B$31</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,9 +27,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -37,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="49">
   <si>
     <t>Tidsregistrering af (Navn)</t>
   </si>
@@ -175,6 +172,15 @@
   </si>
   <si>
     <t>Sammenlæg testdata 08a</t>
+  </si>
+  <si>
+    <t>Iterationsplan</t>
+  </si>
+  <si>
+    <t>4 timer</t>
+  </si>
+  <si>
+    <t>Milepæl før Iteration</t>
   </si>
 </sst>
 </file>
@@ -383,12 +389,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="20" fontId="4" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -396,6 +396,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Beregning" xfId="1" builtinId="22"/>
@@ -776,13 +782,13 @@
   <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="53.88671875" style="11" customWidth="1"/>
-    <col min="2" max="2" width="53.88671875" style="26" customWidth="1"/>
+    <col min="2" max="2" width="53.88671875" style="24" customWidth="1"/>
     <col min="3" max="3" width="31.44140625" style="18" customWidth="1"/>
     <col min="4" max="4" width="26.77734375" style="17" customWidth="1"/>
     <col min="5" max="5" width="31" style="17" customWidth="1"/>
@@ -792,22 +798,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="24.6" x14ac:dyDescent="0.4">
-      <c r="A1" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
+      <c r="A1" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
     </row>
     <row r="2" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="23" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="8" t="s">
@@ -833,7 +839,7 @@
       <c r="A3" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="24" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="12">
@@ -845,7 +851,7 @@
       <c r="E3" s="14">
         <v>0.53472222222222221</v>
       </c>
-      <c r="F3" s="24" t="s">
+      <c r="F3" s="22" t="s">
         <v>43</v>
       </c>
       <c r="G3" s="5">
@@ -861,7 +867,7 @@
       <c r="A4" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="24" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="15">
@@ -889,7 +895,7 @@
       <c r="A5" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="24" t="s">
         <v>19</v>
       </c>
       <c r="C5" s="15">
@@ -914,31 +920,57 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="C6" s="15"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="20"/>
+      <c r="A6" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="15">
+        <v>43886</v>
+      </c>
+      <c r="D6" s="16">
+        <v>0.37152777777777773</v>
+      </c>
+      <c r="E6" s="16">
+        <v>0.53819444444444442</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>47</v>
+      </c>
       <c r="G6" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.16666666666666669</v>
       </c>
       <c r="H6" s="1">
         <f>SUM(G$3:G6)</f>
-        <v>0.19444444444444448</v>
+        <v>0.36111111111111116</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="C7" s="15"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
+      <c r="A7" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="15">
+        <v>43886</v>
+      </c>
+      <c r="D7" s="16">
+        <v>0.54513888888888895</v>
+      </c>
+      <c r="E7" s="16">
+        <v>0.57291666666666663</v>
+      </c>
       <c r="F7" s="20"/>
       <c r="G7" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.7777777777777679E-2</v>
       </c>
       <c r="H7" s="1">
         <f>SUM(G$3:G7)</f>
-        <v>0.19444444444444448</v>
+        <v>0.38888888888888884</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -952,7 +984,7 @@
       </c>
       <c r="H8" s="1">
         <f>SUM(G$3:G8)</f>
-        <v>0.19444444444444448</v>
+        <v>0.38888888888888884</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -966,7 +998,7 @@
       </c>
       <c r="H9" s="1">
         <f>SUM(G$3:G9)</f>
-        <v>0.19444444444444448</v>
+        <v>0.38888888888888884</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -980,7 +1012,7 @@
       </c>
       <c r="H10" s="1">
         <f>SUM(G$3:G10)</f>
-        <v>0.19444444444444448</v>
+        <v>0.38888888888888884</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -994,7 +1026,7 @@
       </c>
       <c r="H11" s="1">
         <f>SUM(G$3:G11)</f>
-        <v>0.19444444444444448</v>
+        <v>0.38888888888888884</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1008,7 +1040,7 @@
       </c>
       <c r="H12" s="1">
         <f>SUM(G$3:G12)</f>
-        <v>0.19444444444444448</v>
+        <v>0.38888888888888884</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1022,7 +1054,7 @@
       </c>
       <c r="H13" s="1">
         <f>SUM(G$3:G13)</f>
-        <v>0.19444444444444448</v>
+        <v>0.38888888888888884</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1034,7 +1066,7 @@
       </c>
       <c r="H14" s="1">
         <f>SUM(G$3:G14)</f>
-        <v>0.19444444444444448</v>
+        <v>0.38888888888888884</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1046,7 +1078,7 @@
       </c>
       <c r="H15" s="1">
         <f>SUM(G$3:G15)</f>
-        <v>0.19444444444444448</v>
+        <v>0.38888888888888884</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1058,7 +1090,7 @@
       </c>
       <c r="H16" s="1">
         <f>SUM(G$3:G16)</f>
-        <v>0.19444444444444448</v>
+        <v>0.38888888888888884</v>
       </c>
     </row>
     <row r="17" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1070,7 +1102,7 @@
       </c>
       <c r="H17" s="1">
         <f>SUM(G$3:G17)</f>
-        <v>0.19444444444444448</v>
+        <v>0.38888888888888884</v>
       </c>
     </row>
     <row r="18" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1082,7 +1114,7 @@
       </c>
       <c r="H18" s="1">
         <f>SUM(G$3:G18)</f>
-        <v>0.19444444444444448</v>
+        <v>0.38888888888888884</v>
       </c>
     </row>
     <row r="19" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1094,7 +1126,7 @@
       </c>
       <c r="H19" s="1">
         <f>SUM(G$3:G19)</f>
-        <v>0.19444444444444448</v>
+        <v>0.38888888888888884</v>
       </c>
     </row>
     <row r="20" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1106,7 +1138,7 @@
       </c>
       <c r="H20" s="1">
         <f>SUM(G$3:G20)</f>
-        <v>0.19444444444444448</v>
+        <v>0.38888888888888884</v>
       </c>
     </row>
     <row r="21" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1118,7 +1150,7 @@
       </c>
       <c r="H21" s="1">
         <f>SUM(G$3:G21)</f>
-        <v>0.19444444444444448</v>
+        <v>0.38888888888888884</v>
       </c>
     </row>
     <row r="22" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1130,7 +1162,7 @@
       </c>
       <c r="H22" s="1">
         <f>SUM(G$3:G22)</f>
-        <v>0.19444444444444448</v>
+        <v>0.38888888888888884</v>
       </c>
     </row>
     <row r="23" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1142,7 +1174,7 @@
       </c>
       <c r="H23" s="1">
         <f>SUM(G$3:G23)</f>
-        <v>0.19444444444444448</v>
+        <v>0.38888888888888884</v>
       </c>
     </row>
     <row r="24" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1154,7 +1186,7 @@
       </c>
       <c r="H24" s="1">
         <f>SUM(G$3:G24)</f>
-        <v>0.19444444444444448</v>
+        <v>0.38888888888888884</v>
       </c>
     </row>
     <row r="25" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1165,7 +1197,7 @@
       </c>
       <c r="H25" s="1">
         <f>SUM(G$3:G25)</f>
-        <v>0.19444444444444448</v>
+        <v>0.38888888888888884</v>
       </c>
     </row>
     <row r="26" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1176,7 +1208,7 @@
       </c>
       <c r="H26" s="1">
         <f>SUM(G$3:G26)</f>
-        <v>0.19444444444444448</v>
+        <v>0.38888888888888884</v>
       </c>
     </row>
     <row r="27" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1187,7 +1219,7 @@
       </c>
       <c r="H27" s="1">
         <f>SUM(G$3:G27)</f>
-        <v>0.19444444444444448</v>
+        <v>0.38888888888888884</v>
       </c>
     </row>
     <row r="28" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1198,7 +1230,7 @@
       </c>
       <c r="H28" s="1">
         <f>SUM(G$3:G28)</f>
-        <v>0.19444444444444448</v>
+        <v>0.38888888888888884</v>
       </c>
     </row>
     <row r="29" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1209,7 +1241,7 @@
       </c>
       <c r="H29" s="1">
         <f>SUM(G$3:G29)</f>
-        <v>0.19444444444444448</v>
+        <v>0.38888888888888884</v>
       </c>
     </row>
     <row r="30" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1220,7 +1252,7 @@
       </c>
       <c r="H30" s="1">
         <f>SUM(G$3:G30)</f>
-        <v>0.19444444444444448</v>
+        <v>0.38888888888888884</v>
       </c>
     </row>
     <row r="31" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1231,7 +1263,7 @@
       </c>
       <c r="H31" s="1">
         <f>SUM(G$3:G31)</f>
-        <v>0.19444444444444448</v>
+        <v>0.38888888888888884</v>
       </c>
     </row>
     <row r="32" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1242,7 +1274,7 @@
       </c>
       <c r="H32" s="1">
         <f>SUM(G$3:G32)</f>
-        <v>0.19444444444444448</v>
+        <v>0.38888888888888884</v>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.3">
@@ -1327,13 +1359,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="24.6" x14ac:dyDescent="0.4">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">

--- a/08 Project Management/Tidsregistrering/PM15 Tidsregistrering for Laila.xlsx
+++ b/08 Project Management/Tidsregistrering/PM15 Tidsregistrering for Laila.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laila\OneDrive\Dokumenter\GitHub\HoeKulator\08 Project Management\Tidsregistrering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12D314A9-8C20-4EC6-B13F-493EC41C491B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AC3B2551-5494-4A3D-AC5C-9F5E752085A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{84363544-26A8-43A0-AC4F-33AAA0FF1AA4}"/>
+    <workbookView xWindow="3312" yWindow="3312" windowWidth="17280" windowHeight="8964" xr2:uid="{84363544-26A8-43A0-AC4F-33AAA0FF1AA4}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="Roller">'Ark2'!$B$3:$B$31</definedName>
   </definedNames>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,6 +27,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="51">
   <si>
     <t>Tidsregistrering af (Navn)</t>
   </si>
@@ -181,6 +184,12 @@
   </si>
   <si>
     <t>Milepæl før Iteration</t>
+  </si>
+  <si>
+    <t>UC04, DOM04 og ATDOM04a</t>
+  </si>
+  <si>
+    <t>SD0102 og DCD0102</t>
   </si>
 </sst>
 </file>
@@ -781,8 +790,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A07EC185-8A27-41F3-967D-179793E73F80}">
   <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -974,31 +983,55 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="C8" s="15"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
+      <c r="A8" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="15">
+        <v>43889</v>
+      </c>
+      <c r="D8" s="16">
+        <v>0.40625</v>
+      </c>
+      <c r="E8" s="16">
+        <v>0.44444444444444442</v>
+      </c>
       <c r="F8" s="20"/>
       <c r="G8" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.819444444444442E-2</v>
       </c>
       <c r="H8" s="1">
         <f>SUM(G$3:G8)</f>
-        <v>0.38888888888888884</v>
+        <v>0.42708333333333326</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="C9" s="15"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
+      <c r="A9" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="15">
+        <v>43889</v>
+      </c>
+      <c r="D9" s="16">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="E9" s="16">
+        <v>0.57638888888888895</v>
+      </c>
       <c r="F9" s="20"/>
       <c r="G9" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9.7222222222222265E-2</v>
       </c>
       <c r="H9" s="1">
         <f>SUM(G$3:G9)</f>
-        <v>0.38888888888888884</v>
+        <v>0.52430555555555558</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1012,7 +1045,7 @@
       </c>
       <c r="H10" s="1">
         <f>SUM(G$3:G10)</f>
-        <v>0.38888888888888884</v>
+        <v>0.52430555555555558</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1026,7 +1059,7 @@
       </c>
       <c r="H11" s="1">
         <f>SUM(G$3:G11)</f>
-        <v>0.38888888888888884</v>
+        <v>0.52430555555555558</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1040,7 +1073,7 @@
       </c>
       <c r="H12" s="1">
         <f>SUM(G$3:G12)</f>
-        <v>0.38888888888888884</v>
+        <v>0.52430555555555558</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1054,7 +1087,7 @@
       </c>
       <c r="H13" s="1">
         <f>SUM(G$3:G13)</f>
-        <v>0.38888888888888884</v>
+        <v>0.52430555555555558</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1066,7 +1099,7 @@
       </c>
       <c r="H14" s="1">
         <f>SUM(G$3:G14)</f>
-        <v>0.38888888888888884</v>
+        <v>0.52430555555555558</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1078,7 +1111,7 @@
       </c>
       <c r="H15" s="1">
         <f>SUM(G$3:G15)</f>
-        <v>0.38888888888888884</v>
+        <v>0.52430555555555558</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1090,7 +1123,7 @@
       </c>
       <c r="H16" s="1">
         <f>SUM(G$3:G16)</f>
-        <v>0.38888888888888884</v>
+        <v>0.52430555555555558</v>
       </c>
     </row>
     <row r="17" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1102,7 +1135,7 @@
       </c>
       <c r="H17" s="1">
         <f>SUM(G$3:G17)</f>
-        <v>0.38888888888888884</v>
+        <v>0.52430555555555558</v>
       </c>
     </row>
     <row r="18" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1114,7 +1147,7 @@
       </c>
       <c r="H18" s="1">
         <f>SUM(G$3:G18)</f>
-        <v>0.38888888888888884</v>
+        <v>0.52430555555555558</v>
       </c>
     </row>
     <row r="19" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1126,7 +1159,7 @@
       </c>
       <c r="H19" s="1">
         <f>SUM(G$3:G19)</f>
-        <v>0.38888888888888884</v>
+        <v>0.52430555555555558</v>
       </c>
     </row>
     <row r="20" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1138,7 +1171,7 @@
       </c>
       <c r="H20" s="1">
         <f>SUM(G$3:G20)</f>
-        <v>0.38888888888888884</v>
+        <v>0.52430555555555558</v>
       </c>
     </row>
     <row r="21" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1150,7 +1183,7 @@
       </c>
       <c r="H21" s="1">
         <f>SUM(G$3:G21)</f>
-        <v>0.38888888888888884</v>
+        <v>0.52430555555555558</v>
       </c>
     </row>
     <row r="22" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1162,7 +1195,7 @@
       </c>
       <c r="H22" s="1">
         <f>SUM(G$3:G22)</f>
-        <v>0.38888888888888884</v>
+        <v>0.52430555555555558</v>
       </c>
     </row>
     <row r="23" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1174,7 +1207,7 @@
       </c>
       <c r="H23" s="1">
         <f>SUM(G$3:G23)</f>
-        <v>0.38888888888888884</v>
+        <v>0.52430555555555558</v>
       </c>
     </row>
     <row r="24" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1186,7 +1219,7 @@
       </c>
       <c r="H24" s="1">
         <f>SUM(G$3:G24)</f>
-        <v>0.38888888888888884</v>
+        <v>0.52430555555555558</v>
       </c>
     </row>
     <row r="25" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1197,7 +1230,7 @@
       </c>
       <c r="H25" s="1">
         <f>SUM(G$3:G25)</f>
-        <v>0.38888888888888884</v>
+        <v>0.52430555555555558</v>
       </c>
     </row>
     <row r="26" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1208,7 +1241,7 @@
       </c>
       <c r="H26" s="1">
         <f>SUM(G$3:G26)</f>
-        <v>0.38888888888888884</v>
+        <v>0.52430555555555558</v>
       </c>
     </row>
     <row r="27" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1219,7 +1252,7 @@
       </c>
       <c r="H27" s="1">
         <f>SUM(G$3:G27)</f>
-        <v>0.38888888888888884</v>
+        <v>0.52430555555555558</v>
       </c>
     </row>
     <row r="28" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1230,7 +1263,7 @@
       </c>
       <c r="H28" s="1">
         <f>SUM(G$3:G28)</f>
-        <v>0.38888888888888884</v>
+        <v>0.52430555555555558</v>
       </c>
     </row>
     <row r="29" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1241,7 +1274,7 @@
       </c>
       <c r="H29" s="1">
         <f>SUM(G$3:G29)</f>
-        <v>0.38888888888888884</v>
+        <v>0.52430555555555558</v>
       </c>
     </row>
     <row r="30" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1252,7 +1285,7 @@
       </c>
       <c r="H30" s="1">
         <f>SUM(G$3:G30)</f>
-        <v>0.38888888888888884</v>
+        <v>0.52430555555555558</v>
       </c>
     </row>
     <row r="31" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1263,7 +1296,7 @@
       </c>
       <c r="H31" s="1">
         <f>SUM(G$3:G31)</f>
-        <v>0.38888888888888884</v>
+        <v>0.52430555555555558</v>
       </c>
     </row>
     <row r="32" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1274,7 +1307,7 @@
       </c>
       <c r="H32" s="1">
         <f>SUM(G$3:G32)</f>
-        <v>0.38888888888888884</v>
+        <v>0.52430555555555558</v>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.3">

--- a/08 Project Management/Tidsregistrering/PM15 Tidsregistrering for Laila.xlsx
+++ b/08 Project Management/Tidsregistrering/PM15 Tidsregistrering for Laila.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laila\OneDrive\Dokumenter\GitHub\HoeKulator\08 Project Management\Tidsregistrering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AC3B2551-5494-4A3D-AC5C-9F5E752085A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{898B1C26-95F2-4CB3-805C-809F71068D0D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3312" yWindow="3312" windowWidth="17280" windowHeight="8964" xr2:uid="{84363544-26A8-43A0-AC4F-33AAA0FF1AA4}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8964" xr2:uid="{84363544-26A8-43A0-AC4F-33AAA0FF1AA4}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="54">
   <si>
     <t>Tidsregistrering af (Navn)</t>
   </si>
@@ -190,6 +190,15 @@
   </si>
   <si>
     <t>SD0102 og DCD0102</t>
+  </si>
+  <si>
+    <t>SD0104 og DCD0104</t>
+  </si>
+  <si>
+    <t>DS0804 og DCD0804</t>
+  </si>
+  <si>
+    <t>UI Design til UC08</t>
   </si>
 </sst>
 </file>
@@ -790,8 +799,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A07EC185-8A27-41F3-967D-179793E73F80}">
   <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="B7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1035,45 +1044,81 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="C10" s="15"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
+      <c r="A10" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="15">
+        <v>43892</v>
+      </c>
+      <c r="D10" s="16">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="E10" s="16">
+        <v>0.40972222222222227</v>
+      </c>
       <c r="F10" s="20"/>
       <c r="G10" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.5138888888888951E-2</v>
       </c>
       <c r="H10" s="1">
         <f>SUM(G$3:G10)</f>
-        <v>0.52430555555555558</v>
+        <v>0.56944444444444453</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="C11" s="15"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
+      <c r="A11" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="15">
+        <v>43892</v>
+      </c>
+      <c r="D11" s="16">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E11" s="16">
+        <v>0.58333333333333337</v>
+      </c>
       <c r="F11" s="20"/>
       <c r="G11" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.16666666666666669</v>
       </c>
       <c r="H11" s="1">
         <f>SUM(G$3:G11)</f>
-        <v>0.52430555555555558</v>
+        <v>0.73611111111111116</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="C12" s="15"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
+      <c r="A12" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="15">
+        <v>43892</v>
+      </c>
+      <c r="D12" s="16">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="E12" s="16">
+        <v>0.59375</v>
+      </c>
       <c r="F12" s="20"/>
       <c r="G12" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.041666666666663E-2</v>
       </c>
       <c r="H12" s="1">
         <f>SUM(G$3:G12)</f>
-        <v>0.52430555555555558</v>
+        <v>0.74652777777777779</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1087,7 +1132,7 @@
       </c>
       <c r="H13" s="1">
         <f>SUM(G$3:G13)</f>
-        <v>0.52430555555555558</v>
+        <v>0.74652777777777779</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1099,7 +1144,7 @@
       </c>
       <c r="H14" s="1">
         <f>SUM(G$3:G14)</f>
-        <v>0.52430555555555558</v>
+        <v>0.74652777777777779</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1111,7 +1156,7 @@
       </c>
       <c r="H15" s="1">
         <f>SUM(G$3:G15)</f>
-        <v>0.52430555555555558</v>
+        <v>0.74652777777777779</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1123,7 +1168,7 @@
       </c>
       <c r="H16" s="1">
         <f>SUM(G$3:G16)</f>
-        <v>0.52430555555555558</v>
+        <v>0.74652777777777779</v>
       </c>
     </row>
     <row r="17" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1135,7 +1180,7 @@
       </c>
       <c r="H17" s="1">
         <f>SUM(G$3:G17)</f>
-        <v>0.52430555555555558</v>
+        <v>0.74652777777777779</v>
       </c>
     </row>
     <row r="18" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1147,7 +1192,7 @@
       </c>
       <c r="H18" s="1">
         <f>SUM(G$3:G18)</f>
-        <v>0.52430555555555558</v>
+        <v>0.74652777777777779</v>
       </c>
     </row>
     <row r="19" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1159,7 +1204,7 @@
       </c>
       <c r="H19" s="1">
         <f>SUM(G$3:G19)</f>
-        <v>0.52430555555555558</v>
+        <v>0.74652777777777779</v>
       </c>
     </row>
     <row r="20" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1171,7 +1216,7 @@
       </c>
       <c r="H20" s="1">
         <f>SUM(G$3:G20)</f>
-        <v>0.52430555555555558</v>
+        <v>0.74652777777777779</v>
       </c>
     </row>
     <row r="21" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1183,7 +1228,7 @@
       </c>
       <c r="H21" s="1">
         <f>SUM(G$3:G21)</f>
-        <v>0.52430555555555558</v>
+        <v>0.74652777777777779</v>
       </c>
     </row>
     <row r="22" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1195,7 +1240,7 @@
       </c>
       <c r="H22" s="1">
         <f>SUM(G$3:G22)</f>
-        <v>0.52430555555555558</v>
+        <v>0.74652777777777779</v>
       </c>
     </row>
     <row r="23" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1207,7 +1252,7 @@
       </c>
       <c r="H23" s="1">
         <f>SUM(G$3:G23)</f>
-        <v>0.52430555555555558</v>
+        <v>0.74652777777777779</v>
       </c>
     </row>
     <row r="24" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1219,7 +1264,7 @@
       </c>
       <c r="H24" s="1">
         <f>SUM(G$3:G24)</f>
-        <v>0.52430555555555558</v>
+        <v>0.74652777777777779</v>
       </c>
     </row>
     <row r="25" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1230,7 +1275,7 @@
       </c>
       <c r="H25" s="1">
         <f>SUM(G$3:G25)</f>
-        <v>0.52430555555555558</v>
+        <v>0.74652777777777779</v>
       </c>
     </row>
     <row r="26" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1241,7 +1286,7 @@
       </c>
       <c r="H26" s="1">
         <f>SUM(G$3:G26)</f>
-        <v>0.52430555555555558</v>
+        <v>0.74652777777777779</v>
       </c>
     </row>
     <row r="27" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1252,7 +1297,7 @@
       </c>
       <c r="H27" s="1">
         <f>SUM(G$3:G27)</f>
-        <v>0.52430555555555558</v>
+        <v>0.74652777777777779</v>
       </c>
     </row>
     <row r="28" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1263,7 +1308,7 @@
       </c>
       <c r="H28" s="1">
         <f>SUM(G$3:G28)</f>
-        <v>0.52430555555555558</v>
+        <v>0.74652777777777779</v>
       </c>
     </row>
     <row r="29" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1274,7 +1319,7 @@
       </c>
       <c r="H29" s="1">
         <f>SUM(G$3:G29)</f>
-        <v>0.52430555555555558</v>
+        <v>0.74652777777777779</v>
       </c>
     </row>
     <row r="30" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1285,7 +1330,7 @@
       </c>
       <c r="H30" s="1">
         <f>SUM(G$3:G30)</f>
-        <v>0.52430555555555558</v>
+        <v>0.74652777777777779</v>
       </c>
     </row>
     <row r="31" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1296,7 +1341,7 @@
       </c>
       <c r="H31" s="1">
         <f>SUM(G$3:G31)</f>
-        <v>0.52430555555555558</v>
+        <v>0.74652777777777779</v>
       </c>
     </row>
     <row r="32" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1307,7 +1352,7 @@
       </c>
       <c r="H32" s="1">
         <f>SUM(G$3:G32)</f>
-        <v>0.52430555555555558</v>
+        <v>0.74652777777777779</v>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.3">

--- a/08 Project Management/Tidsregistrering/PM15 Tidsregistrering for Laila.xlsx
+++ b/08 Project Management/Tidsregistrering/PM15 Tidsregistrering for Laila.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laila\OneDrive\Dokumenter\GitHub\HoeKulator\08 Project Management\Tidsregistrering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{898B1C26-95F2-4CB3-805C-809F71068D0D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B33E793A-2607-4B03-9D13-59B643B751A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8964" xr2:uid="{84363544-26A8-43A0-AC4F-33AAA0FF1AA4}"/>
+    <workbookView xWindow="3036" yWindow="3036" windowWidth="17280" windowHeight="8964" xr2:uid="{84363544-26A8-43A0-AC4F-33AAA0FF1AA4}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="54">
   <si>
     <t>Tidsregistrering af (Navn)</t>
   </si>
@@ -800,7 +800,7 @@
   <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1109,42 +1109,68 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="E12" s="16">
-        <v>0.59375</v>
+        <v>0.625</v>
       </c>
       <c r="F12" s="20"/>
       <c r="G12" s="5">
         <f t="shared" si="0"/>
-        <v>1.041666666666663E-2</v>
+        <v>4.166666666666663E-2</v>
       </c>
       <c r="H12" s="1">
         <f>SUM(G$3:G12)</f>
-        <v>0.74652777777777779</v>
+        <v>0.77777777777777779</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="C13" s="15"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
+      <c r="A13" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="15">
+        <v>43893</v>
+      </c>
+      <c r="D13" s="16">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="E13" s="16">
+        <v>0.60416666666666663</v>
+      </c>
       <c r="F13" s="20"/>
       <c r="G13" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.24999999999999994</v>
       </c>
       <c r="H13" s="1">
         <f>SUM(G$3:G13)</f>
-        <v>0.74652777777777779</v>
+        <v>1.0277777777777777</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="C14" s="15"/>
+      <c r="A14" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="15">
+        <v>43893</v>
+      </c>
+      <c r="D14" s="17">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="E14" s="17">
+        <v>0.66666666666666663</v>
+      </c>
       <c r="F14" s="20"/>
       <c r="G14" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.25E-2</v>
       </c>
       <c r="H14" s="1">
         <f>SUM(G$3:G14)</f>
-        <v>0.74652777777777779</v>
+        <v>1.0902777777777777</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1156,7 +1182,7 @@
       </c>
       <c r="H15" s="1">
         <f>SUM(G$3:G15)</f>
-        <v>0.74652777777777779</v>
+        <v>1.0902777777777777</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1168,7 +1194,7 @@
       </c>
       <c r="H16" s="1">
         <f>SUM(G$3:G16)</f>
-        <v>0.74652777777777779</v>
+        <v>1.0902777777777777</v>
       </c>
     </row>
     <row r="17" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1180,7 +1206,7 @@
       </c>
       <c r="H17" s="1">
         <f>SUM(G$3:G17)</f>
-        <v>0.74652777777777779</v>
+        <v>1.0902777777777777</v>
       </c>
     </row>
     <row r="18" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1192,7 +1218,7 @@
       </c>
       <c r="H18" s="1">
         <f>SUM(G$3:G18)</f>
-        <v>0.74652777777777779</v>
+        <v>1.0902777777777777</v>
       </c>
     </row>
     <row r="19" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1204,7 +1230,7 @@
       </c>
       <c r="H19" s="1">
         <f>SUM(G$3:G19)</f>
-        <v>0.74652777777777779</v>
+        <v>1.0902777777777777</v>
       </c>
     </row>
     <row r="20" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1216,7 +1242,7 @@
       </c>
       <c r="H20" s="1">
         <f>SUM(G$3:G20)</f>
-        <v>0.74652777777777779</v>
+        <v>1.0902777777777777</v>
       </c>
     </row>
     <row r="21" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1228,7 +1254,7 @@
       </c>
       <c r="H21" s="1">
         <f>SUM(G$3:G21)</f>
-        <v>0.74652777777777779</v>
+        <v>1.0902777777777777</v>
       </c>
     </row>
     <row r="22" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1240,7 +1266,7 @@
       </c>
       <c r="H22" s="1">
         <f>SUM(G$3:G22)</f>
-        <v>0.74652777777777779</v>
+        <v>1.0902777777777777</v>
       </c>
     </row>
     <row r="23" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1252,7 +1278,7 @@
       </c>
       <c r="H23" s="1">
         <f>SUM(G$3:G23)</f>
-        <v>0.74652777777777779</v>
+        <v>1.0902777777777777</v>
       </c>
     </row>
     <row r="24" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1264,7 +1290,7 @@
       </c>
       <c r="H24" s="1">
         <f>SUM(G$3:G24)</f>
-        <v>0.74652777777777779</v>
+        <v>1.0902777777777777</v>
       </c>
     </row>
     <row r="25" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1275,7 +1301,7 @@
       </c>
       <c r="H25" s="1">
         <f>SUM(G$3:G25)</f>
-        <v>0.74652777777777779</v>
+        <v>1.0902777777777777</v>
       </c>
     </row>
     <row r="26" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1286,7 +1312,7 @@
       </c>
       <c r="H26" s="1">
         <f>SUM(G$3:G26)</f>
-        <v>0.74652777777777779</v>
+        <v>1.0902777777777777</v>
       </c>
     </row>
     <row r="27" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1297,7 +1323,7 @@
       </c>
       <c r="H27" s="1">
         <f>SUM(G$3:G27)</f>
-        <v>0.74652777777777779</v>
+        <v>1.0902777777777777</v>
       </c>
     </row>
     <row r="28" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1308,7 +1334,7 @@
       </c>
       <c r="H28" s="1">
         <f>SUM(G$3:G28)</f>
-        <v>0.74652777777777779</v>
+        <v>1.0902777777777777</v>
       </c>
     </row>
     <row r="29" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1319,7 +1345,7 @@
       </c>
       <c r="H29" s="1">
         <f>SUM(G$3:G29)</f>
-        <v>0.74652777777777779</v>
+        <v>1.0902777777777777</v>
       </c>
     </row>
     <row r="30" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1330,7 +1356,7 @@
       </c>
       <c r="H30" s="1">
         <f>SUM(G$3:G30)</f>
-        <v>0.74652777777777779</v>
+        <v>1.0902777777777777</v>
       </c>
     </row>
     <row r="31" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1341,7 +1367,7 @@
       </c>
       <c r="H31" s="1">
         <f>SUM(G$3:G31)</f>
-        <v>0.74652777777777779</v>
+        <v>1.0902777777777777</v>
       </c>
     </row>
     <row r="32" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1352,7 +1378,7 @@
       </c>
       <c r="H32" s="1">
         <f>SUM(G$3:G32)</f>
-        <v>0.74652777777777779</v>
+        <v>1.0902777777777777</v>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.3">

--- a/08 Project Management/Tidsregistrering/PM15 Tidsregistrering for Laila.xlsx
+++ b/08 Project Management/Tidsregistrering/PM15 Tidsregistrering for Laila.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laila\OneDrive\Dokumenter\GitHub\HoeKulator\08 Project Management\Tidsregistrering\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/301378694e1c7ec0/Dokumenter/GitHub/HoeKulator/08 Project Management/Tidsregistrering/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B33E793A-2607-4B03-9D13-59B643B751A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{900D3CD3-0F52-4783-A1B9-8257EF5711B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3036" yWindow="3036" windowWidth="17280" windowHeight="8964" xr2:uid="{84363544-26A8-43A0-AC4F-33AAA0FF1AA4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{84363544-26A8-43A0-AC4F-33AAA0FF1AA4}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="57">
   <si>
     <t>Tidsregistrering af (Navn)</t>
   </si>
@@ -199,6 +199,15 @@
   </si>
   <si>
     <t>UI Design til UC08</t>
+  </si>
+  <si>
+    <t>Grund UI til UC08</t>
+  </si>
+  <si>
+    <t>AD09</t>
+  </si>
+  <si>
+    <t>Kundemøde</t>
   </si>
 </sst>
 </file>
@@ -799,8 +808,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A07EC185-8A27-41F3-967D-179793E73F80}">
   <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="B4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1174,54 +1183,110 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="C15" s="15"/>
+      <c r="A15" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="15">
+        <v>43894</v>
+      </c>
+      <c r="D15" s="17">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="E15" s="17">
+        <v>0.44097222222222227</v>
+      </c>
       <c r="F15" s="20"/>
       <c r="G15" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8.680555555555558E-2</v>
       </c>
       <c r="H15" s="1">
         <f>SUM(G$3:G15)</f>
-        <v>1.0902777777777777</v>
+        <v>1.1770833333333333</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="C16" s="15"/>
+      <c r="A16" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="15">
+        <v>43894</v>
+      </c>
+      <c r="D16" s="17">
+        <v>0.44097222222222227</v>
+      </c>
+      <c r="E16" s="17">
+        <v>0.5625</v>
+      </c>
       <c r="F16" s="20"/>
       <c r="G16" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.12152777777777773</v>
       </c>
       <c r="H16" s="1">
         <f>SUM(G$3:G16)</f>
-        <v>1.0902777777777777</v>
-      </c>
-    </row>
-    <row r="17" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="C17" s="15"/>
+        <v>1.2986111111111109</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
+      <c r="A17" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="15">
+        <v>43894</v>
+      </c>
+      <c r="D17" s="17">
+        <v>0.59375</v>
+      </c>
+      <c r="E17" s="17">
+        <v>0.61458333333333337</v>
+      </c>
       <c r="F17" s="20"/>
       <c r="G17" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.083333333333337E-2</v>
       </c>
       <c r="H17" s="1">
         <f>SUM(G$3:G17)</f>
-        <v>1.0902777777777777</v>
-      </c>
-    </row>
-    <row r="18" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="C18" s="15"/>
+        <v>1.3194444444444442</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
+      <c r="A18" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="15">
+        <v>43894</v>
+      </c>
+      <c r="D18" s="17">
+        <v>0.61805555555555558</v>
+      </c>
+      <c r="E18" s="17">
+        <v>0.66666666666666663</v>
+      </c>
       <c r="F18" s="20"/>
       <c r="G18" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.8611111111111049E-2</v>
       </c>
       <c r="H18" s="1">
         <f>SUM(G$3:G18)</f>
-        <v>1.0902777777777777</v>
-      </c>
-    </row>
-    <row r="19" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
+        <v>1.3680555555555554</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
       <c r="C19" s="15"/>
       <c r="F19" s="20"/>
       <c r="G19" s="5">
@@ -1230,10 +1295,10 @@
       </c>
       <c r="H19" s="1">
         <f>SUM(G$3:G19)</f>
-        <v>1.0902777777777777</v>
-      </c>
-    </row>
-    <row r="20" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
+        <v>1.3680555555555554</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
       <c r="C20" s="15"/>
       <c r="F20" s="20"/>
       <c r="G20" s="5">
@@ -1242,10 +1307,10 @@
       </c>
       <c r="H20" s="1">
         <f>SUM(G$3:G20)</f>
-        <v>1.0902777777777777</v>
-      </c>
-    </row>
-    <row r="21" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
+        <v>1.3680555555555554</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
       <c r="C21" s="15"/>
       <c r="F21" s="20"/>
       <c r="G21" s="5">
@@ -1254,10 +1319,10 @@
       </c>
       <c r="H21" s="1">
         <f>SUM(G$3:G21)</f>
-        <v>1.0902777777777777</v>
-      </c>
-    </row>
-    <row r="22" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
+        <v>1.3680555555555554</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
       <c r="C22" s="15"/>
       <c r="F22" s="20"/>
       <c r="G22" s="5">
@@ -1266,10 +1331,10 @@
       </c>
       <c r="H22" s="1">
         <f>SUM(G$3:G22)</f>
-        <v>1.0902777777777777</v>
-      </c>
-    </row>
-    <row r="23" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
+        <v>1.3680555555555554</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
       <c r="C23" s="15"/>
       <c r="F23" s="20"/>
       <c r="G23" s="5">
@@ -1278,10 +1343,10 @@
       </c>
       <c r="H23" s="1">
         <f>SUM(G$3:G23)</f>
-        <v>1.0902777777777777</v>
-      </c>
-    </row>
-    <row r="24" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
+        <v>1.3680555555555554</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
       <c r="C24" s="15"/>
       <c r="F24" s="20"/>
       <c r="G24" s="5">
@@ -1290,10 +1355,10 @@
       </c>
       <c r="H24" s="1">
         <f>SUM(G$3:G24)</f>
-        <v>1.0902777777777777</v>
-      </c>
-    </row>
-    <row r="25" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
+        <v>1.3680555555555554</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
       <c r="C25" s="15"/>
       <c r="G25" s="5">
         <f t="shared" si="0"/>
@@ -1301,10 +1366,10 @@
       </c>
       <c r="H25" s="1">
         <f>SUM(G$3:G25)</f>
-        <v>1.0902777777777777</v>
-      </c>
-    </row>
-    <row r="26" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
+        <v>1.3680555555555554</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
       <c r="C26" s="15"/>
       <c r="G26" s="5">
         <f t="shared" si="0"/>
@@ -1312,10 +1377,10 @@
       </c>
       <c r="H26" s="1">
         <f>SUM(G$3:G26)</f>
-        <v>1.0902777777777777</v>
-      </c>
-    </row>
-    <row r="27" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
+        <v>1.3680555555555554</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
       <c r="C27" s="15"/>
       <c r="G27" s="5">
         <f t="shared" si="0"/>
@@ -1323,10 +1388,10 @@
       </c>
       <c r="H27" s="1">
         <f>SUM(G$3:G27)</f>
-        <v>1.0902777777777777</v>
-      </c>
-    </row>
-    <row r="28" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
+        <v>1.3680555555555554</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
       <c r="C28" s="15"/>
       <c r="G28" s="5">
         <f t="shared" si="0"/>
@@ -1334,10 +1399,10 @@
       </c>
       <c r="H28" s="1">
         <f>SUM(G$3:G28)</f>
-        <v>1.0902777777777777</v>
-      </c>
-    </row>
-    <row r="29" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
+        <v>1.3680555555555554</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
       <c r="C29" s="15"/>
       <c r="G29" s="5">
         <f t="shared" si="0"/>
@@ -1345,10 +1410,10 @@
       </c>
       <c r="H29" s="1">
         <f>SUM(G$3:G29)</f>
-        <v>1.0902777777777777</v>
-      </c>
-    </row>
-    <row r="30" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
+        <v>1.3680555555555554</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
       <c r="C30" s="15"/>
       <c r="G30" s="5">
         <f t="shared" si="0"/>
@@ -1356,10 +1421,10 @@
       </c>
       <c r="H30" s="1">
         <f>SUM(G$3:G30)</f>
-        <v>1.0902777777777777</v>
-      </c>
-    </row>
-    <row r="31" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
+        <v>1.3680555555555554</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
       <c r="C31" s="15"/>
       <c r="G31" s="5">
         <f t="shared" si="0"/>
@@ -1367,10 +1432,10 @@
       </c>
       <c r="H31" s="1">
         <f>SUM(G$3:G31)</f>
-        <v>1.0902777777777777</v>
-      </c>
-    </row>
-    <row r="32" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
+        <v>1.3680555555555554</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
       <c r="C32" s="15"/>
       <c r="G32" s="5">
         <f t="shared" si="0"/>
@@ -1378,7 +1443,7 @@
       </c>
       <c r="H32" s="1">
         <f>SUM(G$3:G32)</f>
-        <v>1.0902777777777777</v>
+        <v>1.3680555555555554</v>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.3">

--- a/08 Project Management/Tidsregistrering/PM15 Tidsregistrering for Laila.xlsx
+++ b/08 Project Management/Tidsregistrering/PM15 Tidsregistrering for Laila.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/301378694e1c7ec0/Dokumenter/GitHub/HoeKulator/08 Project Management/Tidsregistrering/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{900D3CD3-0F52-4783-A1B9-8257EF5711B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{5E147F5A-E1F6-409B-AC98-2D414EB36D96}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{84363544-26A8-43A0-AC4F-33AAA0FF1AA4}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="64">
   <si>
     <t>Tidsregistrering af (Navn)</t>
   </si>
@@ -208,6 +208,27 @@
   </si>
   <si>
     <t>Kundemøde</t>
+  </si>
+  <si>
+    <t>DD09</t>
+  </si>
+  <si>
+    <t>ATD09a</t>
+  </si>
+  <si>
+    <t>Opfølgning af ændringer til Ui Design til UC08 efter kundemøde</t>
+  </si>
+  <si>
+    <t>Anmodning om testinfo fra HØK</t>
+  </si>
+  <si>
+    <t>UC0804</t>
+  </si>
+  <si>
+    <t>Hjælpe Lukas med review og tidsregistrering</t>
+  </si>
+  <si>
+    <t>Læse op på kode til Logic implementering</t>
   </si>
 </sst>
 </file>
@@ -808,8 +829,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A07EC185-8A27-41F3-967D-179793E73F80}">
   <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1287,97 +1308,209 @@
       </c>
     </row>
     <row r="19" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="C19" s="15"/>
+      <c r="A19" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="15">
+        <v>43895</v>
+      </c>
+      <c r="D19" s="17">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="E19" s="17">
+        <v>0.375</v>
+      </c>
       <c r="F19" s="20"/>
       <c r="G19" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.0416666666666685E-2</v>
       </c>
       <c r="H19" s="1">
         <f>SUM(G$3:G19)</f>
-        <v>1.3680555555555554</v>
+        <v>1.3784722222222221</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="C20" s="15"/>
+      <c r="A20" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="15">
+        <v>43895</v>
+      </c>
+      <c r="D20" s="17">
+        <v>0.375</v>
+      </c>
+      <c r="E20" s="17">
+        <v>0.39583333333333331</v>
+      </c>
       <c r="F20" s="20"/>
       <c r="G20" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.0833333333333315E-2</v>
       </c>
       <c r="H20" s="1">
         <f>SUM(G$3:G20)</f>
-        <v>1.3680555555555554</v>
+        <v>1.3993055555555554</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="C21" s="15"/>
+      <c r="A21" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="15">
+        <v>43895</v>
+      </c>
+      <c r="D21" s="17">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E21" s="17">
+        <v>0.44097222222222227</v>
+      </c>
       <c r="F21" s="20"/>
       <c r="G21" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.5138888888888951E-2</v>
       </c>
       <c r="H21" s="1">
         <f>SUM(G$3:G21)</f>
-        <v>1.3680555555555554</v>
+        <v>1.4444444444444442</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="C22" s="15"/>
+      <c r="A22" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B22" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="15">
+        <v>43895</v>
+      </c>
+      <c r="D22" s="17">
+        <v>0.4548611111111111</v>
+      </c>
+      <c r="E22" s="17">
+        <v>0.46527777777777773</v>
+      </c>
       <c r="F22" s="20"/>
       <c r="G22" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.041666666666663E-2</v>
       </c>
       <c r="H22" s="1">
         <f>SUM(G$3:G22)</f>
-        <v>1.3680555555555554</v>
+        <v>1.4548611111111107</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="C23" s="15"/>
+      <c r="A23" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B23" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="15">
+        <v>43895</v>
+      </c>
+      <c r="D23" s="17">
+        <v>0.46527777777777773</v>
+      </c>
+      <c r="E23" s="17">
+        <v>0.47222222222222227</v>
+      </c>
       <c r="F23" s="20"/>
       <c r="G23" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.9444444444445308E-3</v>
       </c>
       <c r="H23" s="1">
         <f>SUM(G$3:G23)</f>
-        <v>1.3680555555555554</v>
+        <v>1.4618055555555554</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="C24" s="15"/>
+      <c r="A24" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B24" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="15">
+        <v>43895</v>
+      </c>
+      <c r="D24" s="17">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="E24" s="17">
+        <v>0.49305555555555558</v>
+      </c>
       <c r="F24" s="20"/>
       <c r="G24" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.0833333333333315E-2</v>
       </c>
       <c r="H24" s="1">
         <f>SUM(G$3:G24)</f>
-        <v>1.3680555555555554</v>
+        <v>1.4826388888888886</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="C25" s="15"/>
+      <c r="A25" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B25" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="15">
+        <v>43895</v>
+      </c>
+      <c r="D25" s="17">
+        <v>0.53125</v>
+      </c>
+      <c r="E25" s="17">
+        <v>0.61111111111111105</v>
+      </c>
       <c r="G25" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7.9861111111111049E-2</v>
       </c>
       <c r="H25" s="1">
         <f>SUM(G$3:G25)</f>
-        <v>1.3680555555555554</v>
+        <v>1.5624999999999996</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="C26" s="15"/>
+      <c r="A26" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B26" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" s="15">
+        <v>43895</v>
+      </c>
+      <c r="D26" s="17">
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="E26" s="17">
+        <v>0.66666666666666663</v>
+      </c>
       <c r="G26" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5.555555555555558E-2</v>
       </c>
       <c r="H26" s="1">
         <f>SUM(G$3:G26)</f>
-        <v>1.3680555555555554</v>
+        <v>1.6180555555555551</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1388,7 +1521,7 @@
       </c>
       <c r="H27" s="1">
         <f>SUM(G$3:G27)</f>
-        <v>1.3680555555555554</v>
+        <v>1.6180555555555551</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1399,7 +1532,7 @@
       </c>
       <c r="H28" s="1">
         <f>SUM(G$3:G28)</f>
-        <v>1.3680555555555554</v>
+        <v>1.6180555555555551</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1410,7 +1543,7 @@
       </c>
       <c r="H29" s="1">
         <f>SUM(G$3:G29)</f>
-        <v>1.3680555555555554</v>
+        <v>1.6180555555555551</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1421,7 +1554,7 @@
       </c>
       <c r="H30" s="1">
         <f>SUM(G$3:G30)</f>
-        <v>1.3680555555555554</v>
+        <v>1.6180555555555551</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1432,7 +1565,7 @@
       </c>
       <c r="H31" s="1">
         <f>SUM(G$3:G31)</f>
-        <v>1.3680555555555554</v>
+        <v>1.6180555555555551</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1443,7 +1576,7 @@
       </c>
       <c r="H32" s="1">
         <f>SUM(G$3:G32)</f>
-        <v>1.3680555555555554</v>
+        <v>1.6180555555555551</v>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.3">

--- a/08 Project Management/Tidsregistrering/PM15 Tidsregistrering for Laila.xlsx
+++ b/08 Project Management/Tidsregistrering/PM15 Tidsregistrering for Laila.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/301378694e1c7ec0/Dokumenter/GitHub/HoeKulator/08 Project Management/Tidsregistrering/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{5E147F5A-E1F6-409B-AC98-2D414EB36D96}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{C7BED2E9-DCAC-4000-A71F-BF6697BADE48}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{84363544-26A8-43A0-AC4F-33AAA0FF1AA4}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="68">
   <si>
     <t>Tidsregistrering af (Navn)</t>
   </si>
@@ -229,6 +229,18 @@
   </si>
   <si>
     <t>Læse op på kode til Logic implementering</t>
+  </si>
+  <si>
+    <t>DD + DD07 sammenlægning og  samlet dataordbog oprettet</t>
+  </si>
+  <si>
+    <t>ATD03a + ATD03b Beregn Bruttofortjeneste sammenlægning</t>
+  </si>
+  <si>
+    <t>ATD06 KKO sammenlægning</t>
+  </si>
+  <si>
+    <t>Opfølgning og tilføjelser af sammenlægning af DDér i Ordbogen</t>
   </si>
 </sst>
 </file>
@@ -830,7 +842,7 @@
   <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1514,47 +1526,103 @@
       </c>
     </row>
     <row r="27" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="C27" s="15"/>
+      <c r="A27" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B27" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="15">
+        <v>43896</v>
+      </c>
+      <c r="D27" s="17">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="E27" s="17">
+        <v>0.45833333333333331</v>
+      </c>
       <c r="G27" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9.375E-2</v>
       </c>
       <c r="H27" s="1">
         <f>SUM(G$3:G27)</f>
-        <v>1.6180555555555551</v>
+        <v>1.7118055555555551</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="C28" s="15"/>
+      <c r="A28" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B28" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="15">
+        <v>43896</v>
+      </c>
+      <c r="D28" s="17">
+        <v>0.46180555555555558</v>
+      </c>
+      <c r="E28" s="17">
+        <v>0.54652777777777783</v>
+      </c>
       <c r="G28" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8.4722222222222254E-2</v>
       </c>
       <c r="H28" s="1">
         <f>SUM(G$3:G28)</f>
-        <v>1.6180555555555551</v>
+        <v>1.7965277777777775</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="C29" s="15"/>
+      <c r="A29" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B29" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="15">
+        <v>43896</v>
+      </c>
+      <c r="D29" s="17">
+        <v>0.54791666666666672</v>
+      </c>
+      <c r="E29" s="17">
+        <v>0.56736111111111109</v>
+      </c>
       <c r="G29" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.9444444444444375E-2</v>
       </c>
       <c r="H29" s="1">
         <f>SUM(G$3:G29)</f>
-        <v>1.6180555555555551</v>
+        <v>1.8159722222222219</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="C30" s="15"/>
+      <c r="A30" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B30" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="15">
+        <v>43896</v>
+      </c>
+      <c r="D30" s="17">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="E30" s="17">
+        <v>0.63541666666666663</v>
+      </c>
       <c r="G30" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.25E-2</v>
       </c>
       <c r="H30" s="1">
         <f>SUM(G$3:G30)</f>
-        <v>1.6180555555555551</v>
+        <v>1.8784722222222219</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1565,7 +1633,7 @@
       </c>
       <c r="H31" s="1">
         <f>SUM(G$3:G31)</f>
-        <v>1.6180555555555551</v>
+        <v>1.8784722222222219</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1576,7 +1644,7 @@
       </c>
       <c r="H32" s="1">
         <f>SUM(G$3:G32)</f>
-        <v>1.6180555555555551</v>
+        <v>1.8784722222222219</v>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.3">

--- a/08 Project Management/Tidsregistrering/PM15 Tidsregistrering for Laila.xlsx
+++ b/08 Project Management/Tidsregistrering/PM15 Tidsregistrering for Laila.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/301378694e1c7ec0/Dokumenter/GitHub/HoeKulator/08 Project Management/Tidsregistrering/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laila\OneDrive\Dokumenter\GitHub\HoeKulator\08 Project Management\Tidsregistrering\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="14_{C7BED2E9-DCAC-4000-A71F-BF6697BADE48}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>

--- a/08 Project Management/Tidsregistrering/PM15 Tidsregistrering for Laila.xlsx
+++ b/08 Project Management/Tidsregistrering/PM15 Tidsregistrering for Laila.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laila\OneDrive\Dokumenter\GitHub\HoeKulator\08 Project Management\Tidsregistrering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{C7BED2E9-DCAC-4000-A71F-BF6697BADE48}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="52" documentId="14_{C7BED2E9-DCAC-4000-A71F-BF6697BADE48}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F2899419-F93A-4B85-9A1E-3041F7A46B12}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{84363544-26A8-43A0-AC4F-33AAA0FF1AA4}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="74">
   <si>
     <t>Tidsregistrering af (Navn)</t>
   </si>
@@ -241,6 +241,24 @@
   </si>
   <si>
     <t>Opfølgning og tilføjelser af sammenlægning af DDér i Ordbogen</t>
+  </si>
+  <si>
+    <t>Dataordbog alfabetisk</t>
+  </si>
+  <si>
+    <t>AD10 rettelse</t>
+  </si>
+  <si>
+    <t>AD10 Review</t>
+  </si>
+  <si>
+    <t>SSD10</t>
+  </si>
+  <si>
+    <t>Læse op på Clean Architecture</t>
+  </si>
+  <si>
+    <t>Email-korrespondence/anmodning af testinfo fra HØK</t>
   </si>
 </sst>
 </file>
@@ -841,8 +859,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A07EC185-8A27-41F3-967D-179793E73F80}">
   <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -943,7 +961,7 @@
         <v>43</v>
       </c>
       <c r="G4" s="5">
-        <f t="shared" ref="G4:G32" si="0">E4-D4</f>
+        <f t="shared" ref="G4:G37" si="0">E4-D4</f>
         <v>4.1666666666666741E-2</v>
       </c>
       <c r="H4" s="1">
@@ -1626,70 +1644,188 @@
       </c>
     </row>
     <row r="31" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="C31" s="15"/>
+      <c r="A31" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B31" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="15">
+        <v>43899</v>
+      </c>
+      <c r="D31" s="17">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="E31" s="17">
+        <v>0.3923611111111111</v>
+      </c>
       <c r="G31" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.777777777777779E-2</v>
       </c>
       <c r="H31" s="1">
         <f>SUM(G$3:G31)</f>
-        <v>1.8784722222222219</v>
+        <v>1.9062499999999996</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="C32" s="15"/>
+      <c r="A32" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="B32" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="15">
+        <v>43899</v>
+      </c>
+      <c r="D32" s="17">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E32" s="17">
+        <v>0.53472222222222221</v>
+      </c>
       <c r="G32" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.11805555555555552</v>
       </c>
       <c r="H32" s="1">
         <f>SUM(G$3:G32)</f>
-        <v>1.8784722222222219</v>
-      </c>
-    </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C33" s="15"/>
-    </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C34" s="15"/>
-    </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C35" s="15"/>
-    </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C36" s="15"/>
-    </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C37" s="15"/>
-    </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.3">
+        <v>2.0243055555555549</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B33" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33" s="15">
+        <v>43899</v>
+      </c>
+      <c r="D33" s="17">
+        <v>0.53472222222222221</v>
+      </c>
+      <c r="E33" s="17">
+        <v>0.54513888888888895</v>
+      </c>
+      <c r="G33" s="6">
+        <f t="shared" si="0"/>
+        <v>1.0416666666666741E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="B34" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" s="15">
+        <v>43899</v>
+      </c>
+      <c r="D34" s="17">
+        <v>0.54513888888888895</v>
+      </c>
+      <c r="E34" s="17">
+        <v>0.58680555555555558</v>
+      </c>
+      <c r="G34" s="6">
+        <f t="shared" si="0"/>
+        <v>4.166666666666663E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="B35" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35" s="15">
+        <v>43899</v>
+      </c>
+      <c r="D35" s="17">
+        <v>0.59375</v>
+      </c>
+      <c r="E35" s="17">
+        <v>0.62847222222222221</v>
+      </c>
+      <c r="G35" s="6">
+        <f t="shared" si="0"/>
+        <v>3.472222222222221E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="B36" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" s="15">
+        <v>43899</v>
+      </c>
+      <c r="D36" s="17">
+        <v>0.62847222222222221</v>
+      </c>
+      <c r="E36" s="17">
+        <v>0.63541666666666663</v>
+      </c>
+      <c r="G36" s="6">
+        <f t="shared" si="0"/>
+        <v>6.9444444444444198E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="B37" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C37" s="15">
+        <v>43899</v>
+      </c>
+      <c r="D37" s="17">
+        <v>0.64236111111111105</v>
+      </c>
+      <c r="E37" s="17">
+        <v>0.65625</v>
+      </c>
+      <c r="G37" s="6">
+        <f t="shared" si="0"/>
+        <v>1.3888888888888951E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C38" s="15"/>
     </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C39" s="15"/>
     </row>
-    <row r="40" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C40" s="15"/>
     </row>
-    <row r="41" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C41" s="15"/>
     </row>
-    <row r="42" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C42" s="15"/>
     </row>
-    <row r="43" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C43" s="15"/>
     </row>
-    <row r="44" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C44" s="15"/>
     </row>
-    <row r="45" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C45" s="15"/>
     </row>
-    <row r="46" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C46" s="15"/>
     </row>
-    <row r="47" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C47" s="15"/>
     </row>
   </sheetData>

--- a/08 Project Management/Tidsregistrering/PM15 Tidsregistrering for Laila.xlsx
+++ b/08 Project Management/Tidsregistrering/PM15 Tidsregistrering for Laila.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laila\OneDrive\Dokumenter\GitHub\HoeKulator\08 Project Management\Tidsregistrering\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/301378694e1c7ec0/Dokumenter/GitHub/HoeKulator/08 Project Management/Tidsregistrering/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="52" documentId="14_{C7BED2E9-DCAC-4000-A71F-BF6697BADE48}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F2899419-F93A-4B85-9A1E-3041F7A46B12}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{EF1EA680-20FF-43C9-84DB-702BD8A91203}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{84363544-26A8-43A0-AC4F-33AAA0FF1AA4}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="78">
   <si>
     <t>Tidsregistrering af (Navn)</t>
   </si>
@@ -259,6 +259,18 @@
   </si>
   <si>
     <t>Email-korrespondence/anmodning af testinfo fra HØK</t>
+  </si>
+  <si>
+    <t>Review af OC0803</t>
+  </si>
+  <si>
+    <t>Systemtest OC0802</t>
+  </si>
+  <si>
+    <t>Ændringer af SSD10 i review med Marc</t>
+  </si>
+  <si>
+    <t>Opstart af branch til systemtest 0802 med ANDP</t>
   </si>
 </sst>
 </file>
@@ -859,8 +871,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A07EC185-8A27-41F3-967D-179793E73F80}">
   <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -961,7 +973,7 @@
         <v>43</v>
       </c>
       <c r="G4" s="5">
-        <f t="shared" ref="G4:G37" si="0">E4-D4</f>
+        <f t="shared" ref="G4:G41" si="0">E4-D4</f>
         <v>4.1666666666666741E-2</v>
       </c>
       <c r="H4" s="1">
@@ -1799,16 +1811,88 @@
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C38" s="15"/>
+      <c r="A38" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B38" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C38" s="15">
+        <v>43900</v>
+      </c>
+      <c r="D38" s="17">
+        <v>0.4375</v>
+      </c>
+      <c r="E38" s="17">
+        <v>0.46180555555555558</v>
+      </c>
+      <c r="G38" s="6">
+        <f t="shared" si="0"/>
+        <v>2.430555555555558E-2</v>
+      </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C39" s="15"/>
+      <c r="A39" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B39" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C39" s="15">
+        <v>43900</v>
+      </c>
+      <c r="D39" s="17">
+        <v>0.4861111111111111</v>
+      </c>
+      <c r="E39" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="G39" s="6">
+        <f t="shared" si="0"/>
+        <v>1.3888888888888895E-2</v>
+      </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C40" s="15"/>
+      <c r="A40" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="B40" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" s="15">
+        <v>43900</v>
+      </c>
+      <c r="D40" s="17">
+        <v>0.51736111111111105</v>
+      </c>
+      <c r="E40" s="17">
+        <v>0.65277777777777779</v>
+      </c>
+      <c r="G40" s="6">
+        <f t="shared" si="0"/>
+        <v>0.13541666666666674</v>
+      </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C41" s="15"/>
+      <c r="A41" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="B41" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C41" s="15">
+        <v>43900</v>
+      </c>
+      <c r="D41" s="17">
+        <v>0.65277777777777779</v>
+      </c>
+      <c r="E41" s="17">
+        <v>0.65972222222222221</v>
+      </c>
+      <c r="G41" s="6">
+        <f t="shared" si="0"/>
+        <v>6.9444444444444198E-3</v>
+      </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C42" s="15"/>

--- a/08 Project Management/Tidsregistrering/PM15 Tidsregistrering for Laila.xlsx
+++ b/08 Project Management/Tidsregistrering/PM15 Tidsregistrering for Laila.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/301378694e1c7ec0/Dokumenter/GitHub/HoeKulator/08 Project Management/Tidsregistrering/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laila\OneDrive\Dokumenter\GitHub\HoeKulator\08 Project Management\Tidsregistrering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{EF1EA680-20FF-43C9-84DB-702BD8A91203}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="114_{56DF7DDC-FB08-46C1-ACF7-1E5461347015}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{178C871B-637A-42C4-81F3-4D5349E6C6F5}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{84363544-26A8-43A0-AC4F-33AAA0FF1AA4}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" xr2:uid="{84363544-26A8-43A0-AC4F-33AAA0FF1AA4}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="80">
   <si>
     <t>Tidsregistrering af (Navn)</t>
   </si>
@@ -271,6 +271,12 @@
   </si>
   <si>
     <t>Opstart af branch til systemtest 0802 med ANDP</t>
+  </si>
+  <si>
+    <t>Systemtest OC0802 tjekke eksempler</t>
+  </si>
+  <si>
+    <t>Review af AD09 med Tommy</t>
   </si>
 </sst>
 </file>
@@ -871,8 +877,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A07EC185-8A27-41F3-967D-179793E73F80}">
   <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView tabSelected="1" topLeftCell="B37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -973,7 +979,7 @@
         <v>43</v>
       </c>
       <c r="G4" s="5">
-        <f t="shared" ref="G4:G41" si="0">E4-D4</f>
+        <f t="shared" ref="G4:G44" si="0">E4-D4</f>
         <v>4.1666666666666741E-2</v>
       </c>
       <c r="H4" s="1">
@@ -1895,13 +1901,67 @@
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C42" s="15"/>
+      <c r="A42" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="B42" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C42" s="15">
+        <v>43901</v>
+      </c>
+      <c r="D42" s="17">
+        <v>0.3611111111111111</v>
+      </c>
+      <c r="E42" s="17">
+        <v>0.39930555555555558</v>
+      </c>
+      <c r="G42" s="6">
+        <f t="shared" si="0"/>
+        <v>3.8194444444444475E-2</v>
+      </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C43" s="15"/>
+      <c r="A43" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B43" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C43" s="15">
+        <v>43901</v>
+      </c>
+      <c r="D43" s="17">
+        <v>0.39930555555555558</v>
+      </c>
+      <c r="E43" s="17">
+        <v>0.40625</v>
+      </c>
+      <c r="G43" s="6">
+        <f t="shared" si="0"/>
+        <v>6.9444444444444198E-3</v>
+      </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C44" s="15"/>
+      <c r="A44" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B44" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C44" s="15">
+        <v>43901</v>
+      </c>
+      <c r="D44" s="17">
+        <v>0.41319444444444442</v>
+      </c>
+      <c r="E44" s="17">
+        <v>0.63194444444444442</v>
+      </c>
+      <c r="G44" s="6">
+        <f t="shared" si="0"/>
+        <v>0.21875</v>
+      </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C45" s="15"/>

--- a/08 Project Management/Tidsregistrering/PM15 Tidsregistrering for Laila.xlsx
+++ b/08 Project Management/Tidsregistrering/PM15 Tidsregistrering for Laila.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laila\OneDrive\Dokumenter\GitHub\HoeKulator\08 Project Management\Tidsregistrering\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/301378694e1c7ec0/Dokumenter/GitHub/HoeKulator/08 Project Management/Tidsregistrering/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="114_{56DF7DDC-FB08-46C1-ACF7-1E5461347015}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{178C871B-637A-42C4-81F3-4D5349E6C6F5}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{805D9F03-D20B-445B-8D3A-229B3AC0E6D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" xr2:uid="{84363544-26A8-43A0-AC4F-33AAA0FF1AA4}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8964" xr2:uid="{84363544-26A8-43A0-AC4F-33AAA0FF1AA4}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>

--- a/08 Project Management/Tidsregistrering/PM15 Tidsregistrering for Laila.xlsx
+++ b/08 Project Management/Tidsregistrering/PM15 Tidsregistrering for Laila.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/301378694e1c7ec0/Dokumenter/GitHub/HoeKulator/08 Project Management/Tidsregistrering/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{805D9F03-D20B-445B-8D3A-229B3AC0E6D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="14_{805D9F03-D20B-445B-8D3A-229B3AC0E6D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{EFA70D57-4918-4DC3-BF7A-E406FC1C5507}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8964" xr2:uid="{84363544-26A8-43A0-AC4F-33AAA0FF1AA4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{84363544-26A8-43A0-AC4F-33AAA0FF1AA4}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="82">
   <si>
     <t>Tidsregistrering af (Navn)</t>
   </si>
@@ -277,6 +277,12 @@
   </si>
   <si>
     <t>Review af AD09 med Tommy</t>
+  </si>
+  <si>
+    <t>Relevant litteratur om systemtest</t>
+  </si>
+  <si>
+    <t>Opdatering af DD Dataordbog</t>
   </si>
 </sst>
 </file>
@@ -877,8 +883,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A07EC185-8A27-41F3-967D-179793E73F80}">
   <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -979,7 +985,7 @@
         <v>43</v>
       </c>
       <c r="G4" s="5">
-        <f t="shared" ref="G4:G44" si="0">E4-D4</f>
+        <f t="shared" ref="G4:G46" si="0">E4-D4</f>
         <v>4.1666666666666741E-2</v>
       </c>
       <c r="H4" s="1">
@@ -1964,10 +1970,46 @@
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C45" s="15"/>
+      <c r="A45" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="B45" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C45" s="15">
+        <v>43902</v>
+      </c>
+      <c r="D45" s="17">
+        <v>0.375</v>
+      </c>
+      <c r="E45" s="17">
+        <v>0.625</v>
+      </c>
+      <c r="G45" s="6">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C46" s="15"/>
+      <c r="A46" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="B46" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" s="15">
+        <v>43903</v>
+      </c>
+      <c r="D46" s="17">
+        <v>0.69444444444444453</v>
+      </c>
+      <c r="E46" s="17">
+        <v>0.71875</v>
+      </c>
+      <c r="G46" s="6">
+        <f t="shared" si="0"/>
+        <v>2.4305555555555469E-2</v>
+      </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C47" s="15"/>
